--- a/Electromagnetic-Lab/2-2/数据记录.xlsx
+++ b/Electromagnetic-Lab/2-2/数据记录.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\bupt-EE-Lab\Electromagnetic-Lab\2-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\Lab\bupt-EE-Lab\Electromagnetic-Lab\2-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995D303C-53B0-4B2B-ABC8-01A3A466C350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6744DF86-DA4E-4D15-90DB-5B7582817767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{4319F07E-2BD0-4B81-9CB4-ADA4D05D84A8}"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="17260" windowHeight="5590" xr2:uid="{4319F07E-2BD0-4B81-9CB4-ADA4D05D84A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所测量的波导波长λg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>波节点l0的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,11 +50,18 @@
     <t>测量点实际位置l0+l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>所测量的波导波长λg(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +118,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -131,6 +140,952 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.69897000433601875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.52287874528033762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.22184874961635639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15490195998574319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.6910013008056392E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5757490560675115E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.76342799356293722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0530784434834197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2528530309798931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3765769570565121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4842998393467859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5809249756756194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6665179805548809</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7323937598229686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7860412102425542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8325089127062364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B98-43B0-A9DC-BE352B9B837A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1899866608"/>
+        <c:axId val="1900323248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1899866608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900323248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1900323248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1899866608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792A5C0C-26BC-4EBC-B757-E811A25F155F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,18 +1385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD143B-89F0-476F-9DB4-8B0163CF43FF}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.9140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,37 +1435,280 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B6/63</f>
+        <v>0.77476190476190476</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B6/31.3</f>
+        <v>1.5594249201277957</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B6/20.6</f>
+        <v>2.3694174757281554</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B6/15.3</f>
+        <v>3.1901960784313728</v>
+      </c>
+      <c r="G2" s="3">
+        <f>B6/12</f>
+        <v>4.0674999999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <f>B6/9.8</f>
+        <v>4.9806122448979586</v>
+      </c>
+      <c r="I2" s="3">
+        <f>B6/8.1</f>
+        <v>6.0259259259259261</v>
+      </c>
+      <c r="J2" s="3">
+        <f>B6/6.8</f>
+        <v>7.1779411764705889</v>
+      </c>
+      <c r="K2" s="3">
+        <f>B6/5.6</f>
+        <v>8.7160714285714302</v>
+      </c>
+      <c r="L2" s="3">
+        <f>B6/4</f>
+        <v>12.202500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="4">
+        <f>D6+B2</f>
+        <v>126.11</v>
+      </c>
+      <c r="C4" s="4">
+        <f>D6+C2</f>
+        <v>126.8847619047619</v>
+      </c>
+      <c r="D4" s="4">
+        <f>D2+D6</f>
+        <v>127.6694249201278</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:L4" si="0">E2+E6</f>
+        <v>128.47941747572816</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>129.30019607843138</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>130.17750000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>131.09061224489795</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>132.13592592592593</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>133.28794117647058</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>134.82607142857142</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>138.3125</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.8</v>
+      </c>
+      <c r="D5">
+        <v>11.3</v>
+      </c>
+      <c r="E5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>23.8</v>
+      </c>
+      <c r="G5">
+        <v>30.5</v>
+      </c>
+      <c r="H5">
+        <v>38.1</v>
+      </c>
+      <c r="I5">
+        <v>46.4</v>
+      </c>
+      <c r="J5">
+        <v>54</v>
+      </c>
+      <c r="K5">
+        <v>61.1</v>
+      </c>
+      <c r="L5">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>48.81</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+      <c r="D6">
+        <v>126.11</v>
+      </c>
+      <c r="E6">
+        <v>126.11</v>
+      </c>
+      <c r="F6">
+        <v>126.11</v>
+      </c>
+      <c r="G6">
+        <v>126.11</v>
+      </c>
+      <c r="H6">
+        <v>126.11</v>
+      </c>
+      <c r="I6">
+        <v>126.11</v>
+      </c>
+      <c r="J6">
+        <v>126.11</v>
+      </c>
+      <c r="K6">
+        <v>126.11</v>
+      </c>
+      <c r="L6">
+        <v>126.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="e">
+        <f>LOG10(B1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:L7" si="1">LOG10(C1)</f>
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-0.52287874528033762</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-0.22184874961635639</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-0.15490195998574319</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-4.5757490560675115E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="e">
+        <f>LOG10(B5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:L8" si="2">LOG10(C5)</f>
+        <v>0.76342799356293722</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1.0530784434834197</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1.2528530309798931</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.3765769570565121</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>1.4842998393467859</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.5809249756756194</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.6665179805548809</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.7323937598229686</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1.7860412102425542</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.8325089127062364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>